--- a/doc/LREN3cg_3anos.xlsx
+++ b/doc/LREN3cg_3anos.xlsx
@@ -245,6 +245,9 @@
           <c:tx>
             <c:v>Retornos da Ação</c:v>
           </c:tx>
+          <c:spPr>
+            <a:ln w="9525"/>
+          </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
@@ -4736,6 +4739,9 @@
           <c:tx>
             <c:v>Retornos do Mercado</c:v>
           </c:tx>
+          <c:spPr>
+            <a:ln w="9525"/>
+          </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>

--- a/doc/LREN3cg_3anos.xlsx
+++ b/doc/LREN3cg_3anos.xlsx
@@ -253,9 +253,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Retornos!$D$2:$D$745</c:f>
+              <c:f>Retornos!$D$2:$D$744</c:f>
               <c:strCache>
-                <c:ptCount val="744"/>
+                <c:ptCount val="743"/>
                 <c:pt idx="0">
                   <c:v>12/2023</c:v>
                 </c:pt>
@@ -2483,9 +2483,6 @@
                   <c:v>01/2021</c:v>
                 </c:pt>
                 <c:pt idx="742">
-                  <c:v>01/2021</c:v>
-                </c:pt>
-                <c:pt idx="743">
                   <c:v>01/2021</c:v>
                 </c:pt>
               </c:strCache>
@@ -2493,10 +2490,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Retornos!$B$2:$B$745</c:f>
+              <c:f>Retornos!$B$2:$B$744</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="744"/>
+                <c:ptCount val="743"/>
                 <c:pt idx="0">
                   <c:v>0.01247771836007128</c:v>
                 </c:pt>
@@ -4725,9 +4722,6 @@
                 </c:pt>
                 <c:pt idx="742">
                   <c:v>-0.02384252841696699</c:v>
-                </c:pt>
-                <c:pt idx="743">
-                  <c:v>0.0508378301618857</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4747,9 +4741,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Retornos!$D$2:$D$745</c:f>
+              <c:f>Retornos!$D$2:$D$744</c:f>
               <c:strCache>
-                <c:ptCount val="744"/>
+                <c:ptCount val="743"/>
                 <c:pt idx="0">
                   <c:v>12/2023</c:v>
                 </c:pt>
@@ -6977,9 +6971,6 @@
                   <c:v>01/2021</c:v>
                 </c:pt>
                 <c:pt idx="742">
-                  <c:v>01/2021</c:v>
-                </c:pt>
-                <c:pt idx="743">
                   <c:v>01/2021</c:v>
                 </c:pt>
               </c:strCache>
@@ -6987,10 +6978,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Retornos!$C$2:$C$745</c:f>
+              <c:f>Retornos!$C$2:$C$744</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="744"/>
+                <c:ptCount val="743"/>
                 <c:pt idx="0">
                   <c:v>-6.706708198578326e-05</c:v>
                 </c:pt>
@@ -9219,9 +9210,6 @@
                 </c:pt>
                 <c:pt idx="742">
                   <c:v>0.005267440007381108</c:v>
-                </c:pt>
-                <c:pt idx="743">
-                  <c:v>0.005609068978896348</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9633,6 +9621,11 @@
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="25.7109375" customWidth="1"/>
+    <col min="2" max="3" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
@@ -20074,6 +20067,11 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="25.7109375" customWidth="1"/>
+    <col min="2" max="3" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
